--- a/邻线干扰参数输入_V002.xlsx
+++ b/邻线干扰参数输入_V002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\李继隆\PycharmProjects\DisturbanceCalculate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F570BEB5-985B-47DE-8B44-AB03D2658244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E740E5-C67C-42C0-9B16-9B742F180D7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="参数设置" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>序号</t>
   </si>
@@ -542,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A02832-79FF-4A6D-B60C-EFA8B5E2C25D}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="7" max="8" width="9" customWidth="1"/>
@@ -556,7 +556,7 @@
     <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K2">
         <v>4</v>
@@ -689,6 +689,74 @@
         <v>10000</v>
       </c>
       <c r="V2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>620</v>
+      </c>
+      <c r="H3">
+        <v>620</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>1700</v>
+      </c>
+      <c r="M3">
+        <v>2000</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>25</v>
+      </c>
+      <c r="S3">
+        <v>25</v>
+      </c>
+      <c r="T3">
+        <v>10000</v>
+      </c>
+      <c r="U3">
+        <v>10000</v>
+      </c>
+      <c r="V3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -696,45 +764,45 @@
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{A0261C72-6A2E-41EF-A729-561354BE4B73}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V3" xr:uid="{A0261C72-6A2E-41EF-A729-561354BE4B73}">
       <formula1>"双端TB, 左端单TB, 右端单TB, 无TB"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F2" xr:uid="{147B4349-F599-4348-9B67-4CD4F8ABED3C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F3" xr:uid="{147B4349-F599-4348-9B67-4CD4F8ABED3C}">
       <formula1>"左发, 右发"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:O2" xr:uid="{B27A6D8B-5C2D-41B6-8D6D-3B9006182361}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:O3" xr:uid="{B27A6D8B-5C2D-41B6-8D6D-3B9006182361}">
       <formula1>"7.5, 10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:Q2" xr:uid="{A0501E20-D3E2-411D-8B26-37477DF94A0C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:Q3" xr:uid="{A0501E20-D3E2-411D-8B26-37477DF94A0C}">
       <formula1>"0,1,2,3,4,5,6,7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:M2" xr:uid="{D0DEB131-E2A0-407D-82FF-42E3926D4282}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:M3" xr:uid="{D0DEB131-E2A0-407D-82FF-42E3926D4282}">
       <formula1>"1700,2000,2300,2600"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{7DDBDCD2-A29F-4757-9999-A83F6DB91757}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3" xr:uid="{7DDBDCD2-A29F-4757-9999-A83F6DB91757}">
       <formula1>"1,2,3,4,5,6,7,8,9"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:S2" xr:uid="{5DA1FA46-804D-4B77-B328-F6A7143BFB04}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:S3" xr:uid="{5DA1FA46-804D-4B77-B328-F6A7143BFB04}">
       <formula1>25</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="T2:U2" xr:uid="{3BB30C3C-8148-42E0-A098-5E3C281DA51F}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="T2:U3" xr:uid="{3BB30C3C-8148-42E0-A098-5E3C281DA51F}">
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H2" xr:uid="{ADEF8A49-616E-408C-BEB0-5AA0BF196657}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H3" xr:uid="{ADEF8A49-616E-408C-BEB0-5AA0BF196657}">
       <formula1>0</formula1>
       <formula2>650</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{63B166F5-2371-4867-8112-3256DEB6BFEA}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3" xr:uid="{63B166F5-2371-4867-8112-3256DEB6BFEA}">
       <formula1>-650</formula1>
       <formula2>650</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{059DEAD2-28BA-418E-995C-F47A685AF2E5}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{059DEAD2-28BA-418E-995C-F47A685AF2E5}">
       <formula1>0</formula1>
       <formula2>40</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 D2" xr:uid="{78D384FE-8E29-4E98-A0BF-6C7F43B6AFD5}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D3" xr:uid="{78D384FE-8E29-4E98-A0BF-6C7F43B6AFD5}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
